--- a/tradept/Excel/Localization/Main/english/J集市道具信息表_BazzarItems_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/J集市道具信息表_BazzarItems_hotfix.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88926FC-2D77-4C45-B90D-134F0C99A7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A7390-B698-40BA-A803-6BADBC7CED6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="principal" sheetId="4" r:id="rId1"/>
+    <sheet name="main" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
+    <t>集市道具组ID_BazaarItemSetID</t>
+  </si>
+  <si>
     <t>道具mf描述_ItemDescription(Origin)</t>
   </si>
   <si>
@@ -34,9 +37,6 @@
     <t>高级品质</t>
   </si>
   <si>
-    <t>Avançado</t>
-  </si>
-  <si>
     <t>红石城集市护甲</t>
   </si>
   <si>
@@ -46,9 +46,6 @@
     <t>传说品质</t>
   </si>
   <si>
-    <t>Lendário</t>
-  </si>
-  <si>
     <t>红石城集市木材</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>未知品质</t>
   </si>
   <si>
-    <t>Desconhecido</t>
-  </si>
-  <si>
     <t>白蔷薇集会木材</t>
   </si>
   <si>
@@ -115,10 +109,10 @@
     <t>花鸟市场坐骑1</t>
   </si>
   <si>
-    <t>游商卡 foto 1</t>
-  </si>
-  <si>
-    <t>游商卡 foto 2</t>
+    <t>游商卡片1</t>
+  </si>
+  <si>
+    <t>游商卡片2</t>
   </si>
   <si>
     <t>游商卡片3</t>
@@ -250,7 +244,13 @@
     <t>沙蜥协会伍玛</t>
   </si>
   <si>
-    <t>集市道具组ID_BazaarItemSetID</t>
+    <t>Avanzado</t>
+  </si>
+  <si>
+    <t>Legendario</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
   </si>
 </sst>
 </file>
@@ -328,20 +328,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,444 +653,439 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C19" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="C24" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="C65" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C66" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C67" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C68" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C69" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/J集市道具信息表_BazzarItems_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/J集市道具信息表_BazzarItems_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A7390-B698-40BA-A803-6BADBC7CED6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA01B8C-76C2-4039-9015-A20C2C97EDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1095" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -244,13 +244,13 @@
     <t>沙蜥协会伍玛</t>
   </si>
   <si>
-    <t>Avanzado</t>
-  </si>
-  <si>
-    <t>Legendario</t>
-  </si>
-  <si>
-    <t>Desconocido</t>
+    <t>Avançado</t>
+  </si>
+  <si>
+    <t>Lendário</t>
+  </si>
+  <si>
+    <t>Um estranho</t>
   </si>
 </sst>
 </file>
@@ -328,23 +328,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,438 +650,438 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>74</v>
       </c>
     </row>

--- a/tradept/Excel/Localization/Main/english/J集市道具信息表_BazzarItems_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/J集市道具信息表_BazzarItems_hotfix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA01B8C-76C2-4039-9015-A20C2C97EDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DDA515-8AA8-4B7D-A3EF-EBF12D089ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1095" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -250,7 +250,7 @@
     <t>Lendário</t>
   </si>
   <si>
-    <t>Um estranho</t>
+    <t>Desconhecido</t>
   </si>
 </sst>
 </file>
@@ -651,10 +651,15 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C69"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">

--- a/tradept/Excel/Localization/Main/english/J集市道具信息表_BazzarItems_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/J集市道具信息表_BazzarItems_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DDA515-8AA8-4B7D-A3EF-EBF12D089ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D727D-8971-423C-99D9-6FC0F72CB05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
